--- a/Build 2/Plantwater Systeem/Metingen.xlsx
+++ b/Build 2/Plantwater Systeem/Metingen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\School\KdG\KdG-IoT\Build 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\School\Karel de Grote\Graduaat IoT\KdG-IoT\Build 2\Plantwater Systeem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B05CFA-2A4C-49AB-93B5-072688972C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7079B88B-5FBF-49B0-992C-577F2EB02439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="9270" windowHeight="12885" xr2:uid="{F61BAF8B-0F05-4764-B492-AC931EE2AAAD}"/>
+    <workbookView xWindow="8235" yWindow="-14925" windowWidth="18270" windowHeight="13455" xr2:uid="{F61BAF8B-0F05-4764-B492-AC931EE2AAAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>REsistieve Sensor</a:t>
+              <a:t>Resistieve Sensor</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -252,8 +252,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.1914260717410323E-2"/>
-          <c:y val="0.16708333333333336"/>
+          <c:x val="9.191422348802146E-2"/>
+          <c:y val="0.16708344342863182"/>
           <c:w val="0.87753018372703417"/>
           <c:h val="0.61498432487605714"/>
         </c:manualLayout>
@@ -2624,8 +2624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988DE7F5-2341-40B1-B57C-BC06D6DCFCC8}">
   <dimension ref="B1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
